--- a/results/Activity Scope/gamm_fs_smoothers.xlsx
+++ b/results/Activity Scope/gamm_fs_smoothers.xlsx
@@ -392,16 +392,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0000871857184407723</v>
+        <v>0.000087185718439719</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000273286115288278</v>
+        <v>0.00000272839545435491</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000019017245762587</v>
+        <v>0.000019293960678235</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.69419413174811</v>
+        <v>2.69419413174802</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2685980659866</v>
+        <v>20.9547780853451</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -432,7 +432,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>23.722102137176</v>
+        <v>23.7235235829361</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -443,13 +443,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>44.3315961858684</v>
+        <v>44.3315961858685</v>
       </c>
       <c r="C5" t="n">
         <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>255.051564087605</v>
+        <v>265.838285402445</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
